--- a/nmadb/479888.xlsx
+++ b/nmadb/479888.xlsx
@@ -1,6 +1,312 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="30" windowWidth="21255" windowHeight="9990"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="124519"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+  <si>
+    <t>Study year</t>
+  </si>
+  <si>
+    <t>Study name</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>HR (t1 vs.t 2)</t>
+  </si>
+  <si>
+    <t>CIL</t>
+  </si>
+  <si>
+    <t>CIH</t>
+  </si>
+  <si>
+    <t>Beneficial</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Outcome:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Overall survival </t>
+    </r>
+  </si>
+  <si>
+    <t>Conroy</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Treatments</t>
+  </si>
+  <si>
+    <t>Gemcitabine</t>
+  </si>
+  <si>
+    <t>Riess</t>
+  </si>
+  <si>
+    <t>FOLFIRINOX</t>
+  </si>
+  <si>
+    <t>Kindler</t>
+  </si>
+  <si>
+    <t>Gemcitabine+5FU</t>
+  </si>
+  <si>
+    <t>Herrmann</t>
+  </si>
+  <si>
+    <t>Gemcitabine+5FU+FA</t>
+  </si>
+  <si>
+    <t>Cunningham</t>
+  </si>
+  <si>
+    <t>Gemcitabine+Axinitib</t>
+  </si>
+  <si>
+    <t>Viret</t>
+  </si>
+  <si>
+    <t>Gemcitabine+Capecitabine</t>
+  </si>
+  <si>
+    <t>Colucci</t>
+  </si>
+  <si>
+    <t>Gemcitabine + Cisplatin</t>
+  </si>
+  <si>
+    <t>Oettle</t>
+  </si>
+  <si>
+    <t>Gemcitabine +cetuximab</t>
+  </si>
+  <si>
+    <t>Gemcitabine + Epirubicin+Cisplatin+5FU</t>
+  </si>
+  <si>
+    <t>Philip</t>
+  </si>
+  <si>
+    <t>Gemcitabine +erlotinib</t>
+  </si>
+  <si>
+    <t>Reni</t>
+  </si>
+  <si>
+    <t>Gemcitabine +exatecan</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>Gemcitabine + irinotecan</t>
+  </si>
+  <si>
+    <t>Abou-Alfa</t>
+  </si>
+  <si>
+    <t>Gemcitabine + marismastat</t>
+  </si>
+  <si>
+    <t>Oreilley</t>
+  </si>
+  <si>
+    <t>Gemcitabine +nab-Pacletaxel</t>
+  </si>
+  <si>
+    <t>RochaLima</t>
+  </si>
+  <si>
+    <t>Gemcitabine + Oxaliplatin</t>
+  </si>
+  <si>
+    <t>Bramhall</t>
+  </si>
+  <si>
+    <t>Gemcitabine + premetrexed</t>
+  </si>
+  <si>
+    <t>VonHoff</t>
+  </si>
+  <si>
+    <t>Gemcitabine + sorafenib</t>
+  </si>
+  <si>
+    <t>Louvet</t>
+  </si>
+  <si>
+    <t>Gemcitabine + tipifarnib</t>
+  </si>
+  <si>
+    <t>Poplin</t>
+  </si>
+  <si>
+    <t>Gemcitabine + erlotinib + bevacizumab</t>
+  </si>
+  <si>
+    <t>Goncalves</t>
+  </si>
+  <si>
+    <t>Capecitabine + erlotinib</t>
+  </si>
+  <si>
+    <t>VanCutsem</t>
+  </si>
+  <si>
+    <t>Heinemann</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="3">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+  </cellXfs>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -74,7 +380,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -109,7 +414,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -144,16 +448,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -275,50 +583,922 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0.73</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.82</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="H3" s="13">
+        <v>1.03</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="14">
+        <v>1</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1.04</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="H4" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14">
+        <v>2</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1.01</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="H5" s="13">
+        <v>1.31</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14">
+        <v>3</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="7">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="H6" s="13">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14">
+        <v>4</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.78</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.66</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.93</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14">
+        <v>5</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.59</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1.44</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14">
+        <v>6</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="H9" s="13">
+        <v>1.35</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14">
+        <v>7</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.81</v>
+      </c>
+      <c r="H10" s="13">
+        <v>1.18</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14">
+        <v>8</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0.82</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1.18</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14">
+        <v>9</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="4">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1.06</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0.91</v>
+      </c>
+      <c r="H12" s="13">
+        <v>1.23</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14">
+        <v>10</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="4">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4">
+        <v>9</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0.43</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0.99</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14">
+        <v>11</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0.82</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.68</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14">
+        <v>12</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="4">
+        <v>13</v>
+      </c>
+      <c r="D15" s="4">
+        <v>11</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="H15" s="13">
+        <v>1.66</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14">
+        <v>13</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4">
+        <v>11</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0.74</v>
+      </c>
+      <c r="H16" s="13">
+        <v>1.17</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14">
+        <v>14</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="4">
+        <v>15</v>
+      </c>
+      <c r="D17" s="4">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1.04</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="H17" s="13">
+        <v>1.29</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14">
+        <v>15</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="4">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4">
+        <v>13</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="H18" s="13">
+        <v>1.29</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14">
+        <v>16</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="4">
+        <v>17</v>
+      </c>
+      <c r="D19" s="4">
+        <v>14</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0.72</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0.62</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.84</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14">
+        <v>17</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="4">
+        <v>18</v>
+      </c>
+      <c r="D20" s="4">
+        <v>15</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0.82</v>
+      </c>
+      <c r="G20" s="11">
+        <v>0.64</v>
+      </c>
+      <c r="H20" s="13">
+        <v>1.05</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14">
+        <v>18</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="4">
+        <v>2006</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="4">
+        <v>19</v>
+      </c>
+      <c r="D21" s="4">
+        <v>15</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0.88</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0.73</v>
+      </c>
+      <c r="H21" s="13">
+        <v>1.06</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14">
+        <v>19</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="4">
+        <v>20</v>
+      </c>
+      <c r="D22" s="4">
+        <v>17</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="11">
+        <v>1.27</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="H22" s="13">
+        <v>1.93</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14">
+        <v>20</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="4">
+        <v>21</v>
+      </c>
+      <c r="D23" s="4">
+        <v>18</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0.97</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0.81</v>
+      </c>
+      <c r="H23" s="13">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="4">
+        <v>22</v>
+      </c>
+      <c r="D24" s="4">
+        <v>19</v>
+      </c>
+      <c r="E24" s="4">
+        <v>10</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="H24" s="13">
+        <v>1.07</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="10"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="4">
+        <v>23</v>
+      </c>
+      <c r="D25" s="4">
+        <v>20</v>
+      </c>
+      <c r="E25" s="4">
+        <v>10</v>
+      </c>
+      <c r="F25" s="8">
+        <v>1.02</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="H25" s="13">
+        <v>1.31</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/nmadb/479888.xlsx
+++ b/nmadb/479888.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>Study year</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>t2</t>
-  </si>
-  <si>
-    <t>HR (t1 vs.t 2)</t>
   </si>
   <si>
     <t>CIL</t>
@@ -59,6 +56,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Overall survival </t>
     </r>
@@ -191,6 +189,15 @@
   </si>
   <si>
     <t>Heinemann</t>
+  </si>
+  <si>
+    <t>effect=HR(t1 vs t2)</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>se</t>
   </si>
 </sst>
 </file>
@@ -216,6 +223,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -263,7 +271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -295,6 +303,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,15 +600,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="9" max="9" width="11.42578125" style="18"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -615,29 +628,32 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="4">
         <v>2011</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -657,17 +673,21 @@
       <c r="H2" s="13">
         <v>0.73</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="11">
+        <f>(H2-G2)/(1.96^2)</f>
+        <v>7.2886297376093298E-2</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="4">
         <v>2002</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -687,25 +707,29 @@
       <c r="H3" s="13">
         <v>1.03</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="15" t="s">
+      <c r="I3" s="11">
+        <f>(H3-G3)/(1.96^2)</f>
+        <v>9.8917117867555193E-2</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="14">
+        <v>1</v>
+      </c>
+      <c r="M3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="14">
-        <v>1</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="14"/>
       <c r="N3" s="14"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" s="14"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="4">
         <v>2005</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -725,23 +749,27 @@
       <c r="H4" s="13">
         <v>1.25</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14">
+      <c r="I4" s="11">
+        <f t="shared" ref="I4:I25" si="0">(H4-G4)/(1.96^2)</f>
+        <v>0.10152019991670139</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14">
         <v>2</v>
       </c>
-      <c r="L4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="14"/>
+      <c r="M4" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="N4" s="14"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="14"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="4">
         <v>2011</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4">
         <v>4</v>
@@ -761,23 +789,27 @@
       <c r="H5" s="13">
         <v>1.31</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14">
+      <c r="I5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.13536026655560185</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14">
         <v>3</v>
       </c>
-      <c r="L5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="14"/>
+      <c r="M5" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="N5" s="14"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="7">
         <v>2005</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -797,23 +829,27 @@
       <c r="H6" s="13">
         <v>1.1299999999999999</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14">
+      <c r="I6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.11193252811328612</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14">
         <v>4</v>
       </c>
-      <c r="L6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="14"/>
+      <c r="M6" s="16" t="s">
+        <v>18</v>
+      </c>
       <c r="N6" s="14"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="4">
         <v>2009</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -833,23 +869,27 @@
       <c r="H7" s="13">
         <v>0.93</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14">
+      <c r="I7" s="11">
+        <f t="shared" si="0"/>
+        <v>7.0283215326947118E-2</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14">
         <v>5</v>
       </c>
-      <c r="L7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="14"/>
+      <c r="M7" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="N7" s="14"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" s="14"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="4">
         <v>2004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4">
         <v>7</v>
@@ -869,23 +909,27 @@
       <c r="H8" s="13">
         <v>1.44</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14">
+      <c r="I8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.22126197417742607</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14">
         <v>6</v>
       </c>
-      <c r="L8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="14"/>
+      <c r="M8" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="N8" s="14"/>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="14"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="4">
         <v>2010</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4">
         <v>8</v>
@@ -905,23 +949,27 @@
       <c r="H9" s="13">
         <v>1.35</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14">
+      <c r="I9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.11974177426072473</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14">
         <v>7</v>
       </c>
-      <c r="L9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="14"/>
+      <c r="M9" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="N9" s="14"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="4">
         <v>2005</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4">
         <v>9</v>
@@ -941,23 +989,27 @@
       <c r="H10" s="13">
         <v>1.18</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14">
+      <c r="I10" s="11">
+        <f t="shared" si="0"/>
+        <v>9.6314035818408972E-2</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14">
         <v>8</v>
       </c>
-      <c r="L10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="14"/>
+      <c r="M10" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="N10" s="14"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="14"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="4">
         <v>2005</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4">
         <v>9</v>
@@ -977,23 +1029,27 @@
       <c r="H11" s="13">
         <v>1.18</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14">
+      <c r="I11" s="11">
+        <f t="shared" si="0"/>
+        <v>9.3710953769262806E-2</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14">
         <v>9</v>
       </c>
-      <c r="L11" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="14"/>
+      <c r="M11" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="N11" s="14"/>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" s="14"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="4">
         <v>2010</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="4">
         <v>10</v>
@@ -1013,23 +1069,27 @@
       <c r="H12" s="13">
         <v>1.23</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14">
+      <c r="I12" s="11">
+        <f t="shared" si="0"/>
+        <v>8.3298625572678045E-2</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14">
         <v>10</v>
       </c>
-      <c r="L12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="14"/>
+      <c r="M12" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="N12" s="14"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" s="14"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="4">
         <v>2005</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="4">
         <v>11</v>
@@ -1049,23 +1109,27 @@
       <c r="H13" s="13">
         <v>0.99</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14">
+      <c r="I13" s="11">
+        <f t="shared" si="0"/>
+        <v>0.14577259475218662</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14">
         <v>11</v>
       </c>
-      <c r="L13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="14"/>
+      <c r="M13" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="N13" s="14"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" s="14"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="4">
         <v>2007</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="4">
         <v>12</v>
@@ -1085,23 +1149,27 @@
       <c r="H14" s="13">
         <v>0.98</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14">
+      <c r="I14" s="11">
+        <f t="shared" si="0"/>
+        <v>7.8092461474385658E-2</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14">
         <v>12</v>
       </c>
-      <c r="L14" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" s="14"/>
+      <c r="M14" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="N14" s="14"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" s="14"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="4">
         <v>2007</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="4">
         <v>13</v>
@@ -1121,23 +1189,27 @@
       <c r="H15" s="13">
         <v>1.66</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14">
+      <c r="I15" s="11">
+        <f t="shared" si="0"/>
+        <v>0.23167430237401082</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14">
         <v>13</v>
       </c>
-      <c r="L15" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M15" s="14"/>
+      <c r="M15" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="N15" s="14"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="4">
         <v>2004</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="4">
         <v>14</v>
@@ -1157,23 +1229,27 @@
       <c r="H16" s="13">
         <v>1.17</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14">
+      <c r="I16" s="11">
+        <f t="shared" si="0"/>
+        <v>0.11193252811328612</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14">
         <v>14</v>
       </c>
-      <c r="L16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M16" s="14"/>
+      <c r="M16" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="N16" s="14"/>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" s="14"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="4">
         <v>2004</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="4">
         <v>15</v>
@@ -1193,23 +1269,27 @@
       <c r="H17" s="13">
         <v>1.29</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14">
+      <c r="I17" s="11">
+        <f t="shared" si="0"/>
+        <v>0.11713869221157854</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14">
         <v>15</v>
       </c>
-      <c r="L17" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="M17" s="14"/>
+      <c r="M17" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="N17" s="14"/>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" s="14"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="4">
         <v>2002</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="4">
         <v>16</v>
@@ -1229,23 +1309,27 @@
       <c r="H18" s="13">
         <v>1.29</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14">
+      <c r="I18" s="11">
+        <f t="shared" si="0"/>
+        <v>0.13796334860474804</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14">
         <v>16</v>
       </c>
-      <c r="L18" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M18" s="14"/>
+      <c r="M18" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="N18" s="14"/>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" s="14"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="4">
         <v>2013</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="4">
         <v>17</v>
@@ -1265,23 +1349,27 @@
       <c r="H19" s="13">
         <v>0.84</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14">
+      <c r="I19" s="11">
+        <f t="shared" si="0"/>
+        <v>5.7267805081216157E-2</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14">
         <v>17</v>
       </c>
-      <c r="L19" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="M19" s="14"/>
+      <c r="M19" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="N19" s="14"/>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" s="14"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="4">
         <v>2005</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="4">
         <v>18</v>
@@ -1301,23 +1389,27 @@
       <c r="H20" s="13">
         <v>1.05</v>
       </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14">
+      <c r="I20" s="11">
+        <f t="shared" si="0"/>
+        <v>0.10672636401499377</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14">
         <v>18</v>
       </c>
-      <c r="L20" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="M20" s="14"/>
+      <c r="M20" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="N20" s="14"/>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" s="14"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="4">
         <v>2006</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="4">
         <v>19</v>
@@ -1337,23 +1429,27 @@
       <c r="H21" s="13">
         <v>1.06</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14">
+      <c r="I21" s="11">
+        <f t="shared" si="0"/>
+        <v>8.5901707621824266E-2</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14">
         <v>19</v>
       </c>
-      <c r="L21" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="M21" s="14"/>
+      <c r="M21" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="N21" s="14"/>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" s="14"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="4">
         <v>2012</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="4">
         <v>20</v>
@@ -1373,23 +1469,27 @@
       <c r="H22" s="13">
         <v>1.93</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14">
+      <c r="I22" s="11">
+        <f t="shared" si="0"/>
+        <v>0.28373594335693458</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14">
         <v>20</v>
       </c>
-      <c r="L22" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="M22" s="14"/>
+      <c r="M22" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="N22" s="14"/>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" s="14"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="4">
         <v>2004</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="4">
         <v>21</v>
@@ -1409,17 +1509,21 @@
       <c r="H23" s="13">
         <v>1.1599999999999999</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="10"/>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="I23" s="11">
+        <f t="shared" si="0"/>
+        <v>9.1107871720116584E-2</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="4">
         <v>2009</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="4">
         <v>22</v>
@@ -1439,17 +1543,23 @@
       <c r="H24" s="13">
         <v>1.07</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="10"/>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="I24" s="11">
+        <f t="shared" si="0"/>
+        <v>8.5901707621824266E-2</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="10"/>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="4">
         <v>2012</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="4">
         <v>23</v>
@@ -1469,10 +1579,14 @@
       <c r="H25" s="13">
         <v>1.31</v>
       </c>
-      <c r="I25" s="1"/>
+      <c r="I25" s="11">
+        <f t="shared" si="0"/>
+        <v>0.13536026655560185</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
